--- a/wtts.xlsx
+++ b/wtts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimje\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9E810B-52FE-4EBF-A83B-3332C8FC35E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91C700B-006B-4689-943D-422CF7E674BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE0BE2DD-89A8-4D46-BFF2-5BCA0F3F545D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>J16002612-4153553</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Sources</t>
   </si>
   <si>
-    <t>Distance</t>
-  </si>
-  <si>
     <t>Spectral Type</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>M5.25</t>
   </si>
   <si>
-    <t>Effective Temperature</t>
-  </si>
-  <si>
     <t>K7</t>
   </si>
   <si>
@@ -66,28 +60,61 @@
     <t>159.3</t>
   </si>
   <si>
-    <t xml:space="preserve">Mass of star </t>
-  </si>
-  <si>
-    <t>Luminosity of star</t>
-  </si>
-  <si>
-    <t>0.402</t>
-  </si>
-  <si>
-    <t>0.026</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>0.562</t>
-  </si>
-  <si>
-    <t>0.385</t>
-  </si>
-  <si>
-    <t>0.022</t>
+    <t>Flaring constant (Psi)</t>
+  </si>
+  <si>
+    <t>Scale height (Hc)</t>
+  </si>
+  <si>
+    <t>J16010896-3320141</t>
+  </si>
+  <si>
+    <t>187.0</t>
+  </si>
+  <si>
+    <t>Mass of star (M_sun)</t>
+  </si>
+  <si>
+    <t>Luminosity of star (L_sun)</t>
+  </si>
+  <si>
+    <t>Effective Temperature (K)</t>
+  </si>
+  <si>
+    <t>Distance (pc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inclination </t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>1.02</t>
   </si>
 </sst>
 </file>
@@ -123,16 +150,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,7 +475,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,29 +486,43 @@
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -492,24 +530,32 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>3700</v>
+        <v>2286</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>90</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -519,27 +565,35 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
-        <v>4000</v>
+        <v>3226</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>90</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -549,27 +603,35 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
-        <v>3100</v>
+        <v>2383</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>90</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -578,15 +640,36 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5465</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>90</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
